--- a/individual_case_outputs/avey/472.xlsx
+++ b/individual_case_outputs/avey/472.xlsx
@@ -597,7 +597,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>pneumonia</t>
+          <t>airborne bacterial infection</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>pneumonia</t>
+          <t>chronic lung desease  as tv</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>pneumonia</t>
+          <t>tuberculosis</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>pneumonia</t>
+          <t>lung cancer</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>pericardial effusion</t>
+          <t>pericarditis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>cardiac temponade</t>
+          <t>costochondritis</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -971,11 +971,7 @@
           <t>aspergillus induced airway inflammation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>costochondritis</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
           <t>aspergillosis</t>
@@ -1049,7 +1045,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>pericardial effusion</t>
+          <t>pericarditis</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
